--- a/data/trans_orig/LAWTONBRODY-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONBRODY-Estudios-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>6.610834844493224</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>5.915953470684717</v>
+        <v>5.915953470684718</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.781466847675544</v>
+        <v>6.77970053142101</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.271614059982523</v>
+        <v>6.265752388672943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.659364125683635</v>
+        <v>6.652605579571266</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.139833744614999</v>
+        <v>6.114914568927629</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.540345054060094</v>
+        <v>6.547257349486578</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.906442006254785</v>
+        <v>5.909173093336289</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.194831569082504</v>
+        <v>6.19072300318448</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.47535851431797</v>
+        <v>5.473747629378519</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.701113838611659</v>
+        <v>6.682470698628148</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.132069483371247</v>
+        <v>6.142271125105955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.427283992710853</v>
+        <v>6.434769246478313</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5.774932076784383</v>
+        <v>5.770420205458719</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.19307808183232</v>
+        <v>7.197581048997239</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.832680620163584</v>
+        <v>6.808796687934942</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.097157416925809</v>
+        <v>7.085986730463369</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.62882072130594</v>
+        <v>6.608200544490388</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.903276170689871</v>
+        <v>6.915119767588719</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.351958109798257</v>
+        <v>6.334767631967984</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.621332163617442</v>
+        <v>6.667791306631123</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.849733560756456</v>
+        <v>5.83709094014502</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.980091909628628</v>
+        <v>6.967215415970724</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.482831466194818</v>
+        <v>6.474363720247953</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6.768292796446249</v>
+        <v>6.780326372470995</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>6.059014087650508</v>
+        <v>6.049348404111224</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>7.299979700106924</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>7.226158972205922</v>
+        <v>7.226158972205921</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.950247010966609</v>
+        <v>6.964733728729028</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.703621387039771</v>
+        <v>6.760624444832929</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.329873013591021</v>
+        <v>7.340878017865764</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.21161963811104</v>
+        <v>7.214133952725014</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.397173066956219</v>
+        <v>6.272616041426803</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.410878031606549</v>
+        <v>6.362338319784238</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>6.605470778796856</v>
+        <v>6.645900814958741</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.830769822858668</v>
+        <v>6.817113681497606</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>6.873460597494256</v>
+        <v>6.880679625068256</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6.76459993143108</v>
+        <v>6.78559068964978</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.085807365138881</v>
+        <v>7.062075798845693</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>7.094849573419199</v>
+        <v>7.075422418887116</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.684607838741038</v>
+        <v>7.674277120348345</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.5486199090601</v>
+        <v>7.547381955292575</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.726920083685937</v>
+        <v>7.714693220362156</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.530545326507138</v>
+        <v>7.537072963614474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.53711388757925</v>
+        <v>7.498699862619643</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.430195193950214</v>
+        <v>7.405321363279596</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.298594278874012</v>
+        <v>7.327063860869234</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.21384802215975</v>
+        <v>7.217911674505792</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.495899832762182</v>
+        <v>7.507465831011285</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.40833579991041</v>
+        <v>7.421124094914209</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.455356319529692</v>
+        <v>7.466096416468246</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.348905360832566</v>
+        <v>7.327072919251694</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>7.144032393918496</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>7.363287537866939</v>
+        <v>7.363287537866937</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>7.29585145232515</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.7944677246426</v>
+        <v>6.85047924660859</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.65962422106791</v>
+        <v>6.674037281034597</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.812091716422566</v>
+        <v>6.803084903303733</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.230911010957045</v>
+        <v>7.232951622551457</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.524386418288939</v>
+        <v>6.43094894058037</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.326036278764431</v>
+        <v>5.400560786023815</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.856584720590909</v>
+        <v>5.367650266317398</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.021566076715344</v>
+        <v>7.021958355495708</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.903875539105622</v>
+        <v>6.890193011768567</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.481047867447195</v>
+        <v>6.524882802728611</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.714363972502738</v>
+        <v>6.757119752793124</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>7.27891978576</v>
+        <v>7.265446492577549</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.738211706035225</v>
+        <v>7.720861582603086</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.80843436894597</v>
+        <v>7.801006077045836</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.723444753063816</v>
+        <v>7.717783865686068</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.549195636866474</v>
+        <v>7.515885880148757</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.735412315978504</v>
+        <v>7.739871430337472</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.751828586462167</v>
+        <v>7.722178312615033</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.586137510466833</v>
+        <v>7.577304873327579</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.564630971707945</v>
+        <v>7.57165645549641</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.736370136311916</v>
+        <v>7.744173267785089</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.684408567215641</v>
+        <v>7.669236836368047</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.625544209852528</v>
+        <v>7.622858254760148</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>6.596807995577584</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>6.217624977570144</v>
+        <v>6.217624977570143</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>6.910563450043422</v>
@@ -1101,7 +1101,7 @@
         <v>6.829613629444714</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>6.564226082651269</v>
+        <v>6.56422608265127</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.920300501841984</v>
+        <v>6.921834965892019</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.507527577340699</v>
+        <v>6.496929798082591</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.951717347249242</v>
+        <v>6.96590842815259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.856934954093758</v>
+        <v>6.870953054178585</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.596490902418055</v>
+        <v>6.584116242425157</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.029365638365425</v>
+        <v>6.040680387536895</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>6.386071230252299</v>
+        <v>6.407184744830661</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.083290740486903</v>
+        <v>6.085371466188542</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>6.785330253994569</v>
+        <v>6.779519808285861</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.303752474057792</v>
+        <v>6.301392232792736</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6.687081953281075</v>
+        <v>6.695987410396803</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.473047210701503</v>
+        <v>6.468310008740358</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.260481028031231</v>
+        <v>7.255228237955756</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.935394011467467</v>
+        <v>6.936997267089422</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.272445950366619</v>
+        <v>7.274587330070115</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.13130804311758</v>
+        <v>7.1172806457075</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>6.941260349355099</v>
+        <v>6.935273451414919</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.45265482450048</v>
+        <v>6.450162191621487</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>6.776577662289866</v>
+        <v>6.789218357825109</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>6.347241178576365</v>
+        <v>6.349359296473578</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.018597804113337</v>
+        <v>7.025353790327965</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.610204839082614</v>
+        <v>6.610498627573017</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6.947708128579031</v>
+        <v>6.944215295769055</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>6.658020389980007</v>
+        <v>6.658563878570263</v>
       </c>
     </row>
     <row r="16">
